--- a/po_analysis_by_asin/B0CHSJ6VX8_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSJ6VX8_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,89 +452,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>588</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>273</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>231</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>69</v>
       </c>
     </row>
@@ -549,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,25 +659,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>996</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>381</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>297</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CHSJ6VX8_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSJ6VX8_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,467 @@
       </c>
       <c r="B8" t="n">
         <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-96.0659480322405</v>
+      </c>
+      <c r="D2" t="n">
+        <v>229.9307406276706</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-64.92108787613033</v>
+      </c>
+      <c r="D3" t="n">
+        <v>231.5951540091356</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-88.13942659371352</v>
+      </c>
+      <c r="D4" t="n">
+        <v>243.1788897195244</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-70.70305724727758</v>
+      </c>
+      <c r="D5" t="n">
+        <v>235.7134963446877</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>81</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-59.91895817435565</v>
+      </c>
+      <c r="D6" t="n">
+        <v>239.5519565755657</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-78.44897531073381</v>
+      </c>
+      <c r="D7" t="n">
+        <v>240.161510200797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>87</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-67.76547570430201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>232.5326713558642</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-75.47161850984951</v>
+      </c>
+      <c r="D9" t="n">
+        <v>248.1236578030863</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>93</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-64.53853042203635</v>
+      </c>
+      <c r="D10" t="n">
+        <v>249.5548404848613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>96</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-58.27092239456469</v>
+      </c>
+      <c r="D11" t="n">
+        <v>251.5501032903905</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-64.64097952451326</v>
+      </c>
+      <c r="D12" t="n">
+        <v>255.217624736096</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-60.69735333354729</v>
+      </c>
+      <c r="D13" t="n">
+        <v>258.4652017386988</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>110</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-50.35430749492587</v>
+      </c>
+      <c r="D14" t="n">
+        <v>269.8888841869829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>116</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-40.31755873628241</v>
+      </c>
+      <c r="D15" t="n">
+        <v>271.3064869648707</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>119</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-41.48358617510715</v>
+      </c>
+      <c r="D16" t="n">
+        <v>277.4916841213555</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>122</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-46.55593724514933</v>
+      </c>
+      <c r="D17" t="n">
+        <v>278.4491714302915</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>124</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-40.27970292832994</v>
+      </c>
+      <c r="D18" t="n">
+        <v>271.4397844652273</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>127</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-23.80085336501163</v>
+      </c>
+      <c r="D19" t="n">
+        <v>273.884010905565</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>130</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-21.41932295122118</v>
+      </c>
+      <c r="D20" t="n">
+        <v>280.8739992605001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>133</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-26.10904850297245</v>
+      </c>
+      <c r="D21" t="n">
+        <v>293.1279027323242</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>136</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-16.64751249526828</v>
+      </c>
+      <c r="D22" t="n">
+        <v>286.8376243235055</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>139</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.586365764754749</v>
+      </c>
+      <c r="D23" t="n">
+        <v>274.6735401242062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>142</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-22.83238959761452</v>
+      </c>
+      <c r="D24" t="n">
+        <v>304.7508092632249</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>144</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-13.61536169940072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>295.3988581391383</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>147</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.861155452744383</v>
+      </c>
+      <c r="D26" t="n">
+        <v>299.9306198846508</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>150</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.44785939633723</v>
+      </c>
+      <c r="D27" t="n">
+        <v>314.8972144738126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>153</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.494539147398013</v>
+      </c>
+      <c r="D28" t="n">
+        <v>305.572135635525</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>156</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.093376903688263</v>
+      </c>
+      <c r="D29" t="n">
+        <v>324.486088085379</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>159</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.526512648885775</v>
+      </c>
+      <c r="D30" t="n">
+        <v>297.0156743454094</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>162</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10.51746002138638</v>
+      </c>
+      <c r="D31" t="n">
+        <v>321.2947088869373</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CHSJ6VX8_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSJ6VX8_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>64</v>
       </c>
-      <c r="C2" t="n">
-        <v>-96.0659480322405</v>
-      </c>
-      <c r="D2" t="n">
-        <v>229.9307406276706</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>70</v>
       </c>
-      <c r="C3" t="n">
-        <v>-64.92108787613033</v>
-      </c>
-      <c r="D3" t="n">
-        <v>231.5951540091356</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>73</v>
       </c>
-      <c r="C4" t="n">
-        <v>-88.13942659371352</v>
-      </c>
-      <c r="D4" t="n">
-        <v>243.1788897195244</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>78</v>
       </c>
-      <c r="C5" t="n">
-        <v>-70.70305724727758</v>
-      </c>
-      <c r="D5" t="n">
-        <v>235.7134963446877</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>81</v>
       </c>
-      <c r="C6" t="n">
-        <v>-59.91895817435565</v>
-      </c>
-      <c r="D6" t="n">
-        <v>239.5519565755657</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>84</v>
       </c>
-      <c r="C7" t="n">
-        <v>-78.44897531073381</v>
-      </c>
-      <c r="D7" t="n">
-        <v>240.161510200797</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>87</v>
       </c>
-      <c r="C8" t="n">
-        <v>-67.76547570430201</v>
-      </c>
-      <c r="D8" t="n">
-        <v>232.5326713558642</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>90</v>
       </c>
-      <c r="C9" t="n">
-        <v>-75.47161850984951</v>
-      </c>
-      <c r="D9" t="n">
-        <v>248.1236578030863</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>93</v>
       </c>
-      <c r="C10" t="n">
-        <v>-64.53853042203635</v>
-      </c>
-      <c r="D10" t="n">
-        <v>249.5548404848613</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>96</v>
       </c>
-      <c r="C11" t="n">
-        <v>-58.27092239456469</v>
-      </c>
-      <c r="D11" t="n">
-        <v>251.5501032903905</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>99</v>
       </c>
-      <c r="C12" t="n">
-        <v>-64.64097952451326</v>
-      </c>
-      <c r="D12" t="n">
-        <v>255.217624736096</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>107</v>
       </c>
-      <c r="C13" t="n">
-        <v>-60.69735333354729</v>
-      </c>
-      <c r="D13" t="n">
-        <v>258.4652017386988</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>110</v>
       </c>
-      <c r="C14" t="n">
-        <v>-50.35430749492587</v>
-      </c>
-      <c r="D14" t="n">
-        <v>269.8888841869829</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>116</v>
       </c>
-      <c r="C15" t="n">
-        <v>-40.31755873628241</v>
-      </c>
-      <c r="D15" t="n">
-        <v>271.3064869648707</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>119</v>
       </c>
-      <c r="C16" t="n">
-        <v>-41.48358617510715</v>
-      </c>
-      <c r="D16" t="n">
-        <v>277.4916841213555</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>122</v>
       </c>
-      <c r="C17" t="n">
-        <v>-46.55593724514933</v>
-      </c>
-      <c r="D17" t="n">
-        <v>278.4491714302915</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>124</v>
       </c>
-      <c r="C18" t="n">
-        <v>-40.27970292832994</v>
-      </c>
-      <c r="D18" t="n">
-        <v>271.4397844652273</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>127</v>
       </c>
-      <c r="C19" t="n">
-        <v>-23.80085336501163</v>
-      </c>
-      <c r="D19" t="n">
-        <v>273.884010905565</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>130</v>
       </c>
-      <c r="C20" t="n">
-        <v>-21.41932295122118</v>
-      </c>
-      <c r="D20" t="n">
-        <v>280.8739992605001</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>133</v>
       </c>
-      <c r="C21" t="n">
-        <v>-26.10904850297245</v>
-      </c>
-      <c r="D21" t="n">
-        <v>293.1279027323242</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>136</v>
       </c>
-      <c r="C22" t="n">
-        <v>-16.64751249526828</v>
-      </c>
-      <c r="D22" t="n">
-        <v>286.8376243235055</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>139</v>
       </c>
-      <c r="C23" t="n">
-        <v>-8.586365764754749</v>
-      </c>
-      <c r="D23" t="n">
-        <v>274.6735401242062</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>142</v>
       </c>
-      <c r="C24" t="n">
-        <v>-22.83238959761452</v>
-      </c>
-      <c r="D24" t="n">
-        <v>304.7508092632249</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>144</v>
       </c>
-      <c r="C25" t="n">
-        <v>-13.61536169940072</v>
-      </c>
-      <c r="D25" t="n">
-        <v>295.3988581391383</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>147</v>
       </c>
-      <c r="C26" t="n">
-        <v>-8.861155452744383</v>
-      </c>
-      <c r="D26" t="n">
-        <v>299.9306198846508</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>150</v>
       </c>
-      <c r="C27" t="n">
-        <v>-14.44785939633723</v>
-      </c>
-      <c r="D27" t="n">
-        <v>314.8972144738126</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>153</v>
       </c>
-      <c r="C28" t="n">
-        <v>-7.494539147398013</v>
-      </c>
-      <c r="D28" t="n">
-        <v>305.572135635525</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1140,12 +968,6 @@
       <c r="B29" t="n">
         <v>156</v>
       </c>
-      <c r="C29" t="n">
-        <v>-4.093376903688263</v>
-      </c>
-      <c r="D29" t="n">
-        <v>324.486088085379</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1154,12 +976,6 @@
       <c r="B30" t="n">
         <v>159</v>
       </c>
-      <c r="C30" t="n">
-        <v>4.526512648885775</v>
-      </c>
-      <c r="D30" t="n">
-        <v>297.0156743454094</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,12 +983,6 @@
       </c>
       <c r="B31" t="n">
         <v>162</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10.51746002138638</v>
-      </c>
-      <c r="D31" t="n">
-        <v>321.2947088869373</v>
       </c>
     </row>
   </sheetData>
